--- a/xlsx-templates/leave.xlsx
+++ b/xlsx-templates/leave.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B434B673-73C2-8A48-A1CC-5D2C5F454D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -95,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +110,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -140,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -200,11 +202,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -218,6 +319,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -233,7 +337,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -245,6 +373,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,33 +643,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -559,149 +690,171 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+    <row r="11" spans="1:7" ht="26" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="49" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="77" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="49" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="26" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B9:F11"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B4:F8"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="30" scale="32" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>